--- a/target/classes/TestDocuments.xlsx
+++ b/target/classes/TestDocuments.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jasmine\ICTAK\workspace_Maven\PhpTravels\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B92F419-D913-47D2-A111-B05285C1E48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD497F7-F963-4A1E-B570-A8146D5A23FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{CC14654B-D7A2-44E2-B2A7-FB9EB1A7660C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="4" xr2:uid="{CC14654B-D7A2-44E2-B2A7-FB9EB1A7660C}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Design" sheetId="2" r:id="rId1"/>
     <sheet name="Test Case" sheetId="4" r:id="rId2"/>
     <sheet name="Test Scenario" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="login" sheetId="3" r:id="rId4"/>
+    <sheet name="Defect Log" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="489">
   <si>
     <t>Project Name</t>
   </si>
@@ -282,9 +281,6 @@
   </si>
   <si>
     <t>USD 50 gets added to the wallet</t>
-  </si>
-  <si>
-    <t>Unable to proceed</t>
   </si>
   <si>
     <t>Y</t>
@@ -1658,12 +1654,159 @@
   <si>
     <t>Visa' link is missing</t>
   </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>ID number</t>
+  </si>
+  <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>Submit Date</t>
+  </si>
+  <si>
+    <t>Bug overview</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Bug details</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Bug tracking</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Chrome 100.0.4896.127 </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>#001</t>
+  </si>
+  <si>
+    <t>sb-itxir5994130@personal.example.com</t>
+  </si>
+  <si>
+    <t>testpayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email: sb-itxir5994130@personal.example.com
+password: testpayment
+</t>
+  </si>
+  <si>
+    <t>Unable to view the Revenue Breakdown in the graph</t>
+  </si>
+  <si>
+    <t>https://www.phptravels.net/api/supplier</t>
+  </si>
+  <si>
+    <t>No graphs are visible</t>
+  </si>
+  <si>
+    <t>Supplier is unable to analyse the Revenue Breakdown</t>
+  </si>
+  <si>
+    <t>#002</t>
+  </si>
+  <si>
+    <t>#003</t>
+  </si>
+  <si>
+    <t>Supplier Back-End:Revenue Breakdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to locate and click 'Flight' module </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to locate and click 'Visa' module </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login to Supplier Front-End
+In the Landing page, locate 'Revenue Breakdown 2022'. 
+</t>
+  </si>
+  <si>
+    <t>Graphical disply of tye statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login to Supplier Front-End
+In the Landing page, locate 'Modules'
+</t>
+  </si>
+  <si>
+    <t>Module 'Flight' is visible</t>
+  </si>
+  <si>
+    <t>Module 'Visa' is visible</t>
+  </si>
+  <si>
+    <t>Module 'Flight' is  not visible</t>
+  </si>
+  <si>
+    <t>Module 'Visa' is not visible</t>
+  </si>
+  <si>
+    <t>Supplier is unable to navigate to 'Visa' module</t>
+  </si>
+  <si>
+    <t>Supplier is unable to navigate to 'Flight' module</t>
+  </si>
+  <si>
+    <t>#004</t>
+  </si>
+  <si>
+    <t>Website 'unavailable' frequently</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1718,8 +1861,50 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1740,12 +1925,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1757,7 +1936,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1813,12 +1992,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1845,10 +2105,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1885,18 +2145,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1932,10 +2189,118 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{9F25DDEE-E27B-4290-85BA-06F141CAE019}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{9B03B1F1-9AC6-44AA-AF5B-5450F731320D}"/>
+    <cellStyle name="Normal_Defect Log" xfId="2" xr:uid="{136B7123-3651-4A3A-B5CE-F420BC10ABEC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1948,6 +2313,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2249,9 +2618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1FDEE8-7CCD-4AAE-90D6-A9021174B73F}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2308,7 +2677,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>7</v>
@@ -2338,7 +2707,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
@@ -2357,7 +2726,7 @@
       <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -2383,7 +2752,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -2414,10 +2783,10 @@
         <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
@@ -2426,7 +2795,7 @@
         <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>39</v>
@@ -2448,7 +2817,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>40</v>
@@ -2482,10 +2851,10 @@
         <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2">
         <v>6</v>
@@ -2494,7 +2863,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>42</v>
@@ -2516,10 +2885,10 @@
         <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2">
         <v>6</v>
@@ -2528,7 +2897,7 @@
         <v>44</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>42</v>
@@ -2550,7 +2919,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>52</v>
@@ -2559,7 +2928,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>27</v>
@@ -2579,12 +2948,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>56</v>
@@ -2593,7 +2962,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>27</v>
@@ -2604,7 +2973,7 @@
       <c r="H15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15"/>
       <c r="J15" s="21" t="s">
         <v>30</v>
       </c>
@@ -2618,7 +2987,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>64</v>
@@ -2627,7 +2996,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>27</v>
@@ -2638,7 +3007,7 @@
       <c r="H16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16"/>
       <c r="J16" s="21" t="s">
         <v>30</v>
       </c>
@@ -2647,12 +3016,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>68</v>
@@ -2661,47 +3030,47 @@
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>278</v>
+        <v>468</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="21" t="s">
         <v>30</v>
       </c>
       <c r="K17" s="20"/>
-      <c r="L17" s="23" t="s">
-        <v>71</v>
+      <c r="L17" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D18" s="21">
         <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>28</v>
@@ -2717,57 +3086,59 @@
     </row>
     <row r="19" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D19" s="21">
         <v>7</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="20" t="s">
         <v>91</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>92</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
+      <c r="J19" s="21" t="s">
+        <v>208</v>
+      </c>
       <c r="K19" s="20"/>
-      <c r="L19" s="21" t="s">
-        <v>71</v>
+      <c r="L19" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="21">
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>28</v>
@@ -2777,33 +3148,33 @@
         <v>30</v>
       </c>
       <c r="K20" s="20"/>
-      <c r="L20" s="21" t="s">
-        <v>71</v>
+      <c r="L20" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="25"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
@@ -2815,7 +3186,7 @@
         <v>27</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>28</v>
@@ -2831,13 +3202,13 @@
     </row>
     <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2">
         <v>6</v>
@@ -2846,10 +3217,10 @@
         <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>28</v>
@@ -2865,10 +3236,10 @@
     </row>
     <row r="24" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>40</v>
@@ -2899,13 +3270,13 @@
     </row>
     <row r="25" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2">
         <v>6</v>
@@ -2914,7 +3285,7 @@
         <v>44</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>42</v>
@@ -2933,13 +3304,13 @@
     </row>
     <row r="26" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="2">
         <v>6</v>
@@ -2948,7 +3319,7 @@
         <v>44</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>42</v>
@@ -2967,10 +3338,10 @@
     </row>
     <row r="27" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>52</v>
@@ -2979,7 +3350,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>27</v>
@@ -3001,10 +3372,10 @@
     </row>
     <row r="28" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>64</v>
@@ -3013,7 +3384,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>27</v>
@@ -3035,25 +3406,25 @@
     </row>
     <row r="29" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="21">
         <v>4</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>28</v>
@@ -3069,25 +3440,25 @@
     </row>
     <row r="30" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D30" s="21">
         <v>4</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>28</v>
@@ -3103,25 +3474,25 @@
     </row>
     <row r="31" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" s="21">
         <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>28</v>
@@ -3137,25 +3508,25 @@
     </row>
     <row r="32" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="D32" s="21">
         <v>7</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="G32" s="20" t="s">
         <v>164</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>165</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>28</v>
@@ -3171,25 +3542,25 @@
     </row>
     <row r="33" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D33" s="21">
         <v>8</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="G33" s="20" t="s">
         <v>169</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>170</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>28</v>
@@ -3205,25 +3576,25 @@
     </row>
     <row r="34" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D34" s="21">
         <v>4</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>28</v>
@@ -3239,25 +3610,25 @@
     </row>
     <row r="35" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D35" s="21">
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>28</v>
@@ -3273,25 +3644,25 @@
     </row>
     <row r="36" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D36" s="21">
         <v>4</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F36" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>28</v>
@@ -3307,25 +3678,25 @@
     </row>
     <row r="37" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37" s="21">
         <v>4</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>28</v>
@@ -3341,23 +3712,23 @@
     </row>
     <row r="38" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>28</v>
@@ -3373,25 +3744,25 @@
     </row>
     <row r="39" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="D39" s="21">
         <v>5</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>28</v>
@@ -3407,25 +3778,25 @@
     </row>
     <row r="40" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="21">
         <v>4</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>28</v>
@@ -3443,25 +3814,25 @@
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="25"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="23"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="25"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="24"/>
     </row>
     <row r="42" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D42" s="2">
         <v>3</v>
@@ -3473,7 +3844,7 @@
         <v>27</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>28</v>
@@ -3489,13 +3860,13 @@
     </row>
     <row r="43" spans="1:12" ht="75" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" s="2">
         <v>6</v>
@@ -3504,10 +3875,10 @@
         <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>28</v>
@@ -3523,10 +3894,10 @@
     </row>
     <row r="44" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>40</v>
@@ -3557,13 +3928,13 @@
     </row>
     <row r="45" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" s="2">
         <v>6</v>
@@ -3572,7 +3943,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>42</v>
@@ -3591,13 +3962,13 @@
     </row>
     <row r="46" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="2">
         <v>6</v>
@@ -3606,7 +3977,7 @@
         <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>42</v>
@@ -3625,25 +3996,25 @@
     </row>
     <row r="47" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="C47" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D47" s="21">
         <v>7</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>28</v>
@@ -3659,25 +4030,25 @@
     </row>
     <row r="48" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D48" s="21">
         <v>9</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>28</v>
@@ -3693,32 +4064,32 @@
     </row>
     <row r="49" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D49" s="21">
         <v>9</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="2" t="s">
@@ -3727,25 +4098,25 @@
     </row>
     <row r="50" spans="1:12" ht="75" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="D50" s="21">
         <v>10</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>28</v>
@@ -3761,25 +4132,25 @@
     </row>
     <row r="51" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="D51" s="21">
         <v>7</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>28</v>
@@ -3796,26 +4167,26 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="11"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="26"/>
+      <c r="G52" s="25"/>
       <c r="H52" s="10"/>
-      <c r="I52" s="24"/>
+      <c r="I52" s="23"/>
       <c r="J52" s="10"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="25"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="24"/>
     </row>
     <row r="53" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D53" s="21">
         <v>3</v>
@@ -3827,7 +4198,7 @@
         <v>27</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>28</v>
@@ -3843,13 +4214,13 @@
     </row>
     <row r="54" spans="1:12" ht="75" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="D54" s="21">
         <v>6</v>
@@ -3858,10 +4229,10 @@
         <v>44</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>28</v>
@@ -3877,10 +4248,10 @@
     </row>
     <row r="55" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>40</v>
@@ -3911,13 +4282,13 @@
     </row>
     <row r="56" spans="1:12" ht="75" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D56" s="21">
         <v>6</v>
@@ -3926,7 +4297,7 @@
         <v>44</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>42</v>
@@ -3945,13 +4316,13 @@
     </row>
     <row r="57" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="21">
         <v>6</v>
@@ -3960,7 +4331,7 @@
         <v>44</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>42</v>
@@ -3979,32 +4350,32 @@
     </row>
     <row r="58" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D58" s="21">
         <v>7</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K58" s="20"/>
       <c r="L58" s="21" t="s">
@@ -4013,59 +4384,59 @@
     </row>
     <row r="59" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D59" s="21">
         <v>7</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G59" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="21" t="s">
         <v>32</v>
       </c>
       <c r="K59" s="20"/>
-      <c r="L59" s="27" t="s">
-        <v>71</v>
+      <c r="L59" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="75" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D60" s="21">
         <v>10</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>28</v>
@@ -4081,93 +4452,93 @@
     </row>
     <row r="61" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="D61" s="21">
         <v>7</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G61" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="H61" s="40" t="s">
-        <v>441</v>
+      <c r="G61" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="H61" s="39" t="s">
+        <v>440</v>
       </c>
       <c r="I61" s="20"/>
       <c r="J61" s="21" t="s">
         <v>32</v>
       </c>
       <c r="K61" s="20"/>
-      <c r="L61" s="25" t="s">
-        <v>71</v>
+      <c r="L61" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D62" s="21">
         <v>7</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G62" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="H62" s="40" t="s">
-        <v>442</v>
+      <c r="G62" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="H62" s="39" t="s">
+        <v>441</v>
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="21" t="s">
         <v>32</v>
       </c>
       <c r="K62" s="20"/>
-      <c r="L62" s="25" t="s">
-        <v>71</v>
+      <c r="L62" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D63" s="21">
         <v>7</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="28" t="s">
-        <v>268</v>
+      <c r="G63" s="27" t="s">
+        <v>267</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>28</v>
@@ -4183,25 +4554,25 @@
     </row>
     <row r="64" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D64" s="21">
         <v>7</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G64" s="28" t="s">
-        <v>269</v>
+      <c r="G64" s="27" t="s">
+        <v>268</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>28</v>
@@ -4247,7 +4618,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4282,16 +4653,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>3</v>
@@ -4325,7 +4696,7 @@
       <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4334,7 +4705,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>31</v>
@@ -4360,10 +4731,10 @@
         <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
@@ -4378,7 +4749,7 @@
         <v>44</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.35">
@@ -4389,7 +4760,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -4412,10 +4783,10 @@
         <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2">
         <v>6</v>
@@ -4430,7 +4801,7 @@
         <v>44</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="100" x14ac:dyDescent="0.35">
@@ -4438,10 +4809,10 @@
         <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2">
         <v>6</v>
@@ -4456,7 +4827,7 @@
         <v>44</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.35">
@@ -4467,7 +4838,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="21">
         <v>4</v>
@@ -4479,7 +4850,7 @@
         <v>54</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>27</v>
@@ -4493,7 +4864,7 @@
         <v>56</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="21">
         <v>5</v>
@@ -4505,7 +4876,7 @@
         <v>57</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>27</v>
@@ -4519,7 +4890,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="21">
         <v>4</v>
@@ -4531,7 +4902,7 @@
         <v>65</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>27</v>
@@ -4545,45 +4916,45 @@
         <v>68</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="21">
         <v>8</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>69</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="D18" s="21">
         <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>27</v>
@@ -4591,51 +4962,51 @@
     </row>
     <row r="19" spans="1:8" ht="125" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D19" s="21">
         <v>7</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="D20" s="21">
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>27</v>
@@ -4645,18 +5016,18 @@
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="25"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="24"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="25"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>31</v>
@@ -4665,10 +5036,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>26</v>
@@ -4679,45 +5050,45 @@
     </row>
     <row r="23" spans="1:8" ht="100" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="2">
         <v>6</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="2">
         <v>4</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>42</v>
@@ -4731,19 +5102,19 @@
     </row>
     <row r="25" spans="1:8" ht="100" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="2">
         <v>6</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>42</v>
@@ -4752,24 +5123,24 @@
         <v>44</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="100" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="2">
         <v>6</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>42</v>
@@ -4778,30 +5149,30 @@
         <v>44</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="21">
         <v>4</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>27</v>
@@ -4809,25 +5180,25 @@
     </row>
     <row r="28" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="21">
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>65</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>27</v>
@@ -4835,25 +5206,25 @@
     </row>
     <row r="29" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="21">
         <v>4</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>27</v>
@@ -4861,25 +5232,25 @@
     </row>
     <row r="30" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="21">
         <v>4</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>27</v>
@@ -4887,25 +5258,25 @@
     </row>
     <row r="31" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="21">
         <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>27</v>
@@ -4913,77 +5284,77 @@
     </row>
     <row r="32" spans="1:8" ht="150" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="21">
         <v>7</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="175" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33" s="21">
         <v>8</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" s="21">
         <v>4</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>27</v>
@@ -4991,25 +5362,25 @@
     </row>
     <row r="35" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="21">
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>27</v>
@@ -5017,25 +5388,25 @@
     </row>
     <row r="36" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" s="21">
         <v>4</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>27</v>
@@ -5043,25 +5414,25 @@
     </row>
     <row r="37" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="21">
         <v>4</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>27</v>
@@ -5069,23 +5440,23 @@
     </row>
     <row r="38" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H38" s="21" t="s">
         <v>27</v>
@@ -5093,25 +5464,25 @@
     </row>
     <row r="39" spans="1:8" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="D39" s="21">
         <v>5</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H39" s="21" t="s">
         <v>27</v>
@@ -5119,25 +5490,25 @@
     </row>
     <row r="40" spans="1:8" ht="100" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="21">
         <v>4</v>
       </c>
       <c r="E40" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="20" t="s">
-        <v>181</v>
-      </c>
       <c r="G40" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H40" s="21" t="s">
         <v>27</v>
@@ -5147,18 +5518,18 @@
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="25"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="24"/>
+      <c r="F41" s="23"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="25"/>
+      <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>31</v>
@@ -5167,10 +5538,10 @@
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>26</v>
@@ -5181,45 +5552,45 @@
     </row>
     <row r="43" spans="1:8" ht="100" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D43" s="2">
         <v>6</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D44" s="2">
         <v>4</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>42</v>
@@ -5233,19 +5604,19 @@
     </row>
     <row r="45" spans="1:8" ht="100" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D45" s="2">
         <v>6</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>42</v>
@@ -5254,24 +5625,24 @@
         <v>44</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="100" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D46" s="2">
         <v>6</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>42</v>
@@ -5280,30 +5651,30 @@
         <v>44</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="D47" s="21">
         <v>7</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>27</v>
@@ -5311,25 +5682,25 @@
     </row>
     <row r="48" spans="1:8" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D48" s="21">
         <v>9</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>27</v>
@@ -5337,25 +5708,25 @@
     </row>
     <row r="49" spans="1:8" ht="150" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D49" s="21">
         <v>9</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>27</v>
@@ -5363,25 +5734,25 @@
     </row>
     <row r="50" spans="1:8" ht="187.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="D50" s="21">
         <v>10</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>27</v>
@@ -5389,25 +5760,25 @@
     </row>
     <row r="51" spans="1:8" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D51" s="21">
         <v>7</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>27</v>
@@ -5415,20 +5786,20 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
-      <c r="B52" s="26"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="25"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="26"/>
+      <c r="F52" s="25"/>
       <c r="G52" s="11"/>
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>31</v>
@@ -5437,10 +5808,10 @@
         <v>3</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>26</v>
@@ -5451,45 +5822,45 @@
     </row>
     <row r="54" spans="1:8" ht="100" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D54" s="21">
         <v>6</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="75" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D55" s="21">
         <v>4</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>42</v>
@@ -5503,19 +5874,19 @@
     </row>
     <row r="56" spans="1:8" ht="100" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D56" s="21">
         <v>6</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>42</v>
@@ -5524,24 +5895,24 @@
         <v>44</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="100" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D57" s="21">
         <v>6</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>42</v>
@@ -5550,30 +5921,30 @@
         <v>44</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D58" s="21">
         <v>7</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H58" s="21" t="s">
         <v>27</v>
@@ -5581,25 +5952,25 @@
     </row>
     <row r="59" spans="1:8" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D59" s="21">
         <v>7</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H59" s="21" t="s">
         <v>27</v>
@@ -5607,25 +5978,25 @@
     </row>
     <row r="60" spans="1:8" ht="200" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D60" s="21">
         <v>10</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>27</v>
@@ -5633,25 +6004,25 @@
     </row>
     <row r="61" spans="1:8" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D61" s="21">
         <v>7</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>260</v>
+        <v>269</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>259</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>27</v>
@@ -5659,25 +6030,25 @@
     </row>
     <row r="62" spans="1:8" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D62" s="21">
         <v>7</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>267</v>
+        <v>270</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>266</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>27</v>
@@ -5685,25 +6056,25 @@
     </row>
     <row r="63" spans="1:8" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D63" s="21">
         <v>7</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>268</v>
+        <v>271</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>267</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>27</v>
@@ -5711,25 +6082,25 @@
     </row>
     <row r="64" spans="1:8" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D64" s="21">
         <v>7</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>269</v>
+        <v>272</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>268</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>27</v>
@@ -5765,7 +6136,7 @@
     <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="C1" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -5792,45 +6163,45 @@
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>297</v>
+        <v>399</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>296</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>32</v>
@@ -5838,19 +6209,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>307</v>
+        <v>401</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>306</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>32</v>
@@ -5858,19 +6229,19 @@
     </row>
     <row r="9" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>308</v>
+        <v>402</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>307</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>32</v>
@@ -5878,19 +6249,19 @@
     </row>
     <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>309</v>
+        <v>403</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>308</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>32</v>
@@ -5898,19 +6269,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>310</v>
+        <v>404</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>309</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>32</v>
@@ -5918,19 +6289,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>311</v>
+        <v>405</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>310</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>32</v>
@@ -5938,19 +6309,19 @@
     </row>
     <row r="13" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>324</v>
+        <v>400</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>323</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>32</v>
@@ -5958,19 +6329,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>325</v>
+        <v>406</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>324</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>32</v>
@@ -5978,19 +6349,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>326</v>
+        <v>407</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>325</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>32</v>
@@ -5998,199 +6369,199 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>327</v>
+        <v>408</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>326</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>319</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B17" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>209</v>
+        <v>335</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>346</v>
+        <v>410</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>345</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F18" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>347</v>
+        <v>411</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>346</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="F19" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="F19" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>348</v>
+        <v>412</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>347</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="F20" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="F20" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>349</v>
+        <v>413</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>348</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F21" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="F21" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>350</v>
+        <v>414</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>349</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>242</v>
+        <v>339</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>351</v>
+        <v>415</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>350</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="F23" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="F23" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>352</v>
+        <v>416</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>351</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F24" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>345</v>
+        <v>417</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>344</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>32</v>
@@ -6198,19 +6569,19 @@
     </row>
     <row r="26" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>368</v>
+        <v>418</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>367</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>32</v>
@@ -6218,19 +6589,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>369</v>
+        <v>419</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>368</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>32</v>
@@ -6238,19 +6609,19 @@
     </row>
     <row r="28" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>370</v>
+        <v>420</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>369</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>32</v>
@@ -6258,19 +6629,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>371</v>
+        <v>421</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>370</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>32</v>
@@ -6278,19 +6649,19 @@
     </row>
     <row r="30" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>372</v>
+        <v>422</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>371</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>32</v>
@@ -6298,39 +6669,39 @@
     </row>
     <row r="31" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>373</v>
+        <v>423</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>372</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>209</v>
+      <c r="F31" s="31" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>383</v>
+        <v>424</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>382</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>32</v>
@@ -6338,19 +6709,19 @@
     </row>
     <row r="33" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>384</v>
+        <v>425</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>383</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>32</v>
@@ -6358,19 +6729,19 @@
     </row>
     <row r="34" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B34" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>32</v>
@@ -6378,19 +6749,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>396</v>
+        <v>427</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>395</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>32</v>
@@ -6398,19 +6769,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>397</v>
+        <v>428</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>32</v>
@@ -6418,19 +6789,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>398</v>
+        <v>429</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>397</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>32</v>
@@ -6438,19 +6809,19 @@
     </row>
     <row r="38" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>399</v>
+        <v>430</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>398</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>32</v>
@@ -6471,7 +6842,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6492,10 +6863,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -6507,15 +6878,15 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="M3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="E3" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="M3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -6527,12 +6898,15 @@
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
+      <c r="E4" t="s">
+        <v>466</v>
+      </c>
+      <c r="M4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -6544,146 +6918,414 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
+      <c r="E5" t="s">
+        <v>467</v>
+      </c>
+      <c r="M5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
+      <c r="B6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>434</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="C7" t="s">
         <v>435</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
+      <c r="D8" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
+      <c r="B9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
+      <c r="D10" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E12" s="34"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E13" s="34"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD40FF76-EDC2-4244-B04B-32A4AFE79F18}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" style="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.08984375" style="50" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" style="50" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" style="50" customWidth="1"/>
+    <col min="13" max="13" width="7.26953125" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1" s="45"/>
+      <c r="G1" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="H1" s="46"/>
+      <c r="I1" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
+    </row>
+    <row r="2" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>447</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>451</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>453</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>455</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="N2" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="O2" s="56" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="68" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="59">
+        <v>44688</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>469</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>461</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>463</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>479</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>472</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="O3" s="67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="59">
+        <v>44689</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>461</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>463</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>480</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>481</v>
+      </c>
+      <c r="K4" s="70" t="s">
+        <v>483</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>486</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>459</v>
+      </c>
+      <c r="N4" s="72"/>
+      <c r="O4" s="73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="59">
+        <v>44690</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>461</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>463</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>480</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="K5" s="70" t="s">
+        <v>484</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>485</v>
+      </c>
+      <c r="M5" s="71" t="s">
+        <v>459</v>
+      </c>
+      <c r="N5" s="72"/>
+      <c r="O5" s="73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>488</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="https://getmarker.io" xr:uid="{603782D4-E3CC-4091-96FA-3B97239A8907}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/target/classes/TestDocuments.xlsx
+++ b/target/classes/TestDocuments.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jasmine\ICTAK\workspace_Maven\PhpTravels\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD497F7-F963-4A1E-B570-A8146D5A23FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E99FA95-0538-4F9C-8E49-9CDF142DC0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="4" xr2:uid="{CC14654B-D7A2-44E2-B2A7-FB9EB1A7660C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="3" xr2:uid="{CC14654B-D7A2-44E2-B2A7-FB9EB1A7660C}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Design" sheetId="2" r:id="rId1"/>
     <sheet name="Test Case" sheetId="4" r:id="rId2"/>
     <sheet name="Test Scenario" sheetId="5" r:id="rId3"/>
-    <sheet name="login" sheetId="3" r:id="rId4"/>
-    <sheet name="Defect Log" sheetId="6" r:id="rId5"/>
+    <sheet name="Defect Log" sheetId="6" r:id="rId4"/>
+    <sheet name="login" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="532">
   <si>
     <t>Project Name</t>
   </si>
@@ -1026,18 +1026,6 @@
   </si>
   <si>
     <t>The entry gets changes to 'Confirmed' and total count of Confirmed Bookings increased by one</t>
-  </si>
-  <si>
-    <t>1. Open the browser
-2. Enter the URL-"https://www.phptravels.com/demo"
-3.Click on 'http://www.phptravels.net/supplier' under Supplier Back-end
-4. Enter valid email 
-5. Enter valid password
-6. Click on Login button
-7. Click on 'Pending bookings' tab on top centre
-8. Click on the dropdown menu under Booking Status and  change to 'Confirmed'
-9. Click on Dashboard
-10. Check if the count of Confirmed bookings increased by 1.</t>
   </si>
   <si>
     <t>1. Open the browser
@@ -1203,9 +1191,6 @@
     <t>Application name /Module Name</t>
   </si>
   <si>
-    <t>High Level test Condoitions/Test Scenarios</t>
-  </si>
-  <si>
     <t>Expected Results</t>
   </si>
   <si>
@@ -1221,21 +1206,9 @@
     <t>Customer is able to login with a valid email and password</t>
   </si>
   <si>
-    <t>Check if customer is able to transfer funds using payPal</t>
-  </si>
-  <si>
     <t>Check if customer is able update address in his Profile</t>
   </si>
   <si>
-    <t>Customer is able to vew the voucher for his Booking</t>
-  </si>
-  <si>
-    <t>Check if customer can vew the voucher for his Booking</t>
-  </si>
-  <si>
-    <t>Customer is able to transfer funds using payPal</t>
-  </si>
-  <si>
     <t>Check if customer is able to view his bookings</t>
   </si>
   <si>
@@ -1401,24 +1374,12 @@
     <t>Check if Admin is able to view all bookings</t>
   </si>
   <si>
-    <t>Admin is able to vew the voucher for paid Bookings</t>
-  </si>
-  <si>
-    <t>Check if Admin can vew the voucher for Paid Bookings</t>
-  </si>
-  <si>
     <t>Check if Admin can delete a cancelled booking</t>
   </si>
   <si>
     <t>Admin is able to delete a cancelled booking</t>
   </si>
   <si>
-    <t>Check if Admin can  change the status of a 'Pedning Booking' to 'Confirmed' and verify the count in Dashboard</t>
-  </si>
-  <si>
-    <t>Admin is able to change the status of 'Pedning Booking' to 'Confirmed' and increase in the count in Dashboard is notable</t>
-  </si>
-  <si>
     <t>Admin Back-End</t>
   </si>
   <si>
@@ -1467,9 +1428,6 @@
     <t>TC-054</t>
   </si>
   <si>
-    <t>Ckeck oif supplier can see 'Sales overview and summary' under Dashboard' and the  'Revenue Breakdown' chart</t>
-  </si>
-  <si>
     <t>Supplier can see 'Sales overview and summary' under Dashboard' and the  'Revenue Breakdown' chart</t>
   </si>
   <si>
@@ -1480,36 +1438,6 @@
   </si>
   <si>
     <t>TS_028</t>
-  </si>
-  <si>
-    <t>Check if Supplier can  change the status of a 'Pedning Booking' to 'Confirmed' and verify the count in Dashboard</t>
-  </si>
-  <si>
-    <t>Supplier is able to change the status of 'Pedning Booking' to 'Confirmed' and increase in the count in Dashboard is notable</t>
-  </si>
-  <si>
-    <t>Check if supplier can accsess 'Flights' link</t>
-  </si>
-  <si>
-    <t>Check if supplier can accsess'Visa' link</t>
-  </si>
-  <si>
-    <t>Check if supplier can accsess 'Tours' link</t>
-  </si>
-  <si>
-    <t>Check if supplier can accsess  'Bookings' link</t>
-  </si>
-  <si>
-    <t>Supplier can accsess 'Flights' link</t>
-  </si>
-  <si>
-    <t>Supplier can accsess'Visa' link</t>
-  </si>
-  <si>
-    <t>Supplier can accsess 'Tours' link</t>
-  </si>
-  <si>
-    <t>Supplier can accsess  'Bookings' link</t>
   </si>
   <si>
     <t>TS_029</t>
@@ -1674,9 +1602,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>Environment</t>
   </si>
   <si>
     <t>Platform</t>
@@ -1747,66 +1672,268 @@
     <t>No graphs are visible</t>
   </si>
   <si>
-    <t>Supplier is unable to analyse the Revenue Breakdown</t>
-  </si>
-  <si>
     <t>#002</t>
   </si>
   <si>
     <t>#003</t>
   </si>
   <si>
-    <t>Supplier Back-End:Revenue Breakdown</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unable to locate and click 'Flight' module </t>
   </si>
   <si>
     <t xml:space="preserve">Unable to locate and click 'Visa' module </t>
   </si>
   <si>
+    <t>Module 'Flight' is visible</t>
+  </si>
+  <si>
+    <t>Module 'Visa' is visible</t>
+  </si>
+  <si>
+    <t>Module 'Flight' is  not visible</t>
+  </si>
+  <si>
+    <t>Module 'Visa' is not visible</t>
+  </si>
+  <si>
+    <t>Supplier is unable to navigate to 'Visa' module</t>
+  </si>
+  <si>
+    <t>Supplier is unable to navigate to 'Flight' module</t>
+  </si>
+  <si>
+    <t>#004</t>
+  </si>
+  <si>
+    <t>Verify if the user is redirected to the Agent Front-End login page when the link is clicked</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to login to the Agent Front-End using valid credentials</t>
+  </si>
+  <si>
+    <t>Verify if the user is redirected to the Customer Front-End login page when the link is clicked</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to login to the Customer Front-End using valid credentials</t>
+  </si>
+  <si>
+    <t>Verify if the search results displays hotels from right location</t>
+  </si>
+  <si>
+    <t>Verify if clicking 'Bookings' link navigates to the bookings page</t>
+  </si>
+  <si>
+    <t>Verify if the user is redirected to the Admin Back-End login page when the link is clicked</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to login to the Admin Back-End using valid credentials</t>
+  </si>
+  <si>
+    <t>Verify if clicking 'Website' link navigates to a different page</t>
+  </si>
+  <si>
+    <t>Verify if clicking 'Paid Bookings' diplays all bookings which are paid; and further verify  'invoice' link launches the invoice</t>
+  </si>
+  <si>
+    <t>Verify if clicking 'Cancelled  Bookings' displays all bookings which are cancelled; and further verify  'delete' button removes the entry</t>
+  </si>
+  <si>
+    <t>Verify if the status of a booking can be changed to 'Confirmed' from 'pending' and verify it in the total count of Confirmed Bookings</t>
+  </si>
+  <si>
+    <t>Verify if the user is redirected to the  Supplier Back-End login page when the link is clicked</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to login to the  Supplier Back-End using valid credentials</t>
+  </si>
+  <si>
+    <t>Verify if 'Sales overview and summary' is visible under Dashboard'</t>
+  </si>
+  <si>
+    <t>Verify if the status of a booking can be changed to 'Confirmed' from 'pending' and verify it in the total count of Confirmed Bookings in Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The application frequently shows error during automation run </t>
+  </si>
+  <si>
+    <t>https://www.phptravels.net</t>
+  </si>
+  <si>
+    <t>Bug Report</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Can not be repeated systematically</t>
+  </si>
+  <si>
+    <t>application stops abruptly</t>
+  </si>
+  <si>
+    <t>"No response from API server"</t>
+  </si>
+  <si>
+    <t>Unexpected error during test execution</t>
+  </si>
+  <si>
     <t xml:space="preserve">Login to Supplier Front-End
-In the Landing page, locate 'Revenue Breakdown 2022'. 
-</t>
-  </si>
-  <si>
-    <t>Graphical disply of tye statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login to Supplier Front-End
-In the Landing page, locate 'Modules'
-</t>
-  </si>
-  <si>
-    <t>Module 'Flight' is visible</t>
-  </si>
-  <si>
-    <t>Module 'Visa' is visible</t>
-  </si>
-  <si>
-    <t>Module 'Flight' is  not visible</t>
-  </si>
-  <si>
-    <t>Module 'Visa' is not visible</t>
-  </si>
-  <si>
-    <t>Supplier is unable to navigate to 'Visa' module</t>
-  </si>
-  <si>
-    <t>Supplier is unable to navigate to 'Flight' module</t>
-  </si>
-  <si>
-    <t>#004</t>
-  </si>
-  <si>
-    <t>Website 'unavailable' frequently</t>
+In the Landing page, locate 'Revenue Breakdown 2022'. </t>
+  </si>
+  <si>
+    <t>Login to Supplier Front-End
+In the Landing page, locate 'Modules'</t>
+  </si>
+  <si>
+    <t>1. Open the browser
+2. Enter the URL-"https://www.phptravels.com/demo"
+3.Click on 'http://www.phptravels.net/supplier' under Supplier Back-end
+4. Enter valid email 
+5. Enter valid password
+6. Click on Login button
+7. Click on 'Pending bookings' tab on top center
+8. Click on the dropdown menu under Booking Status and  change to 'Confirmed'
+9. Click on Dashboard
+10. Check if the count of Confirmed bookings increased by 1.</t>
+  </si>
+  <si>
+    <t>Agent Front-End: My Bookings</t>
+  </si>
+  <si>
+    <t>Agent Front-End: Add Funds</t>
+  </si>
+  <si>
+    <t>Agent Front-End: My Profile</t>
+  </si>
+  <si>
+    <t>Agent Front-End: Home</t>
+  </si>
+  <si>
+    <t>Agent Front-End: Hotels by City</t>
+  </si>
+  <si>
+    <t>Agent Front-End: Flights</t>
+  </si>
+  <si>
+    <t>Agent Front-End: Tours</t>
+  </si>
+  <si>
+    <t>Agent Front-End: Visa</t>
+  </si>
+  <si>
+    <t>Agent Front-End: Blog</t>
+  </si>
+  <si>
+    <t>Agent Front-End: Offers</t>
+  </si>
+  <si>
+    <t>Agent Front-End: SD to INR</t>
+  </si>
+  <si>
+    <t>Check if Admin can view the voucher for Paid Bookings</t>
+  </si>
+  <si>
+    <t>Admin is able to view the voucher for paid Bookings</t>
+  </si>
+  <si>
+    <t>Check if Admin can  change the status of a 'Pending Booking' to 'Confirmed' and verify the count in Dashboard</t>
+  </si>
+  <si>
+    <t>Admin is able to change the status of 'Pending Booking' to 'Confirmed' and increase in the count in Dashboard is notable</t>
+  </si>
+  <si>
+    <t>Check if supplier can see 'Sales overview and summary' under Dashboard' and the  'Revenue Breakdown' chart</t>
+  </si>
+  <si>
+    <t>Check if Supplier can  change the status of a 'Pending Booking' to 'Confirmed' and verify the count in Dashboard</t>
+  </si>
+  <si>
+    <t>Supplier is able to change the status of 'Pending Booking' to 'Confirmed' and increase in the count in Dashboard is notable</t>
+  </si>
+  <si>
+    <t>Check if supplier can access 'Flights' link</t>
+  </si>
+  <si>
+    <t>Supplier can access 'Flights' link</t>
+  </si>
+  <si>
+    <t>Check if supplier can access 'Tours' link</t>
+  </si>
+  <si>
+    <t>Supplier can access 'Tours' link</t>
+  </si>
+  <si>
+    <t>Check if supplier can access  'Bookings' link</t>
+  </si>
+  <si>
+    <t>Supplier can access  'Bookings' link</t>
+  </si>
+  <si>
+    <t>Customer Front-End: My Bookings</t>
+  </si>
+  <si>
+    <t>Check if customer can view the voucher for his Booking</t>
+  </si>
+  <si>
+    <t>Customer is able to view the voucher for his Booking</t>
+  </si>
+  <si>
+    <t>Customer Front-End: Add Funds</t>
+  </si>
+  <si>
+    <t>Check if customer is able to transfer funds using PayPal</t>
+  </si>
+  <si>
+    <t>Customer is able to transfer funds using PayPal</t>
+  </si>
+  <si>
+    <t>Customer Front-End: My Profile</t>
+  </si>
+  <si>
+    <t>High Level test Conditions/Test Scenarios</t>
+  </si>
+  <si>
+    <t>Check if supplier can access 'Visa' link</t>
+  </si>
+  <si>
+    <t>Supplier can access 'Visa' link</t>
+  </si>
+  <si>
+    <t>Supplier Back-End: Revenue Breakdown</t>
+  </si>
+  <si>
+    <t>Graphical display of the statistics</t>
+  </si>
+  <si>
+    <t>application runs end to end</t>
+  </si>
+  <si>
+    <t>#005</t>
+  </si>
+  <si>
+    <t>Dynamic Supplier Front-End</t>
+  </si>
+  <si>
+    <t>Modules 'Visa' and 'flight' are visible</t>
+  </si>
+  <si>
+    <t>These modules appear and disappear intermittently</t>
+  </si>
+  <si>
+    <t>Flight and Visa modules under Supplier Front-End behaves erratically</t>
+  </si>
+  <si>
+    <t>Modules doesn’t remain static</t>
+  </si>
+  <si>
+    <t>Supplier is unable to view the Revenue Breakdown graph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1863,10 +1990,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -1897,11 +2020,10 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1936,7 +2058,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2041,17 +2163,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -2070,15 +2181,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2189,110 +2322,131 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2313,10 +2467,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2677,7 +2827,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>7</v>
@@ -2707,7 +2857,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
@@ -2795,7 +2945,7 @@
         <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>39</v>
@@ -2863,7 +3013,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>42</v>
@@ -2897,7 +3047,7 @@
         <v>44</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>42</v>
@@ -3033,7 +3183,7 @@
         <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>69</v>
@@ -3217,7 +3367,7 @@
         <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>105</v>
@@ -3285,7 +3435,7 @@
         <v>44</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>42</v>
@@ -3319,7 +3469,7 @@
         <v>44</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>42</v>
@@ -3875,7 +4025,7 @@
         <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>189</v>
@@ -3943,7 +4093,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>42</v>
@@ -4297,7 +4447,7 @@
         <v>44</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>42</v>
@@ -4331,7 +4481,7 @@
         <v>44</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>42</v>
@@ -4418,7 +4568,7 @@
     </row>
     <row r="60" spans="1:12" ht="75" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>240</v>
@@ -4452,13 +4602,13 @@
     </row>
     <row r="61" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="D61" s="21">
         <v>7</v>
@@ -4470,10 +4620,10 @@
         <v>27</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H61" s="39" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="I61" s="20"/>
       <c r="J61" s="21" t="s">
@@ -4486,13 +4636,13 @@
     </row>
     <row r="62" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D62" s="21">
         <v>7</v>
@@ -4504,10 +4654,10 @@
         <v>27</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H62" s="39" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="21" t="s">
@@ -4520,13 +4670,13 @@
     </row>
     <row r="63" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D63" s="21">
         <v>7</v>
@@ -4538,7 +4688,7 @@
         <v>27</v>
       </c>
       <c r="G63" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>28</v>
@@ -4554,13 +4704,13 @@
     </row>
     <row r="64" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D64" s="21">
         <v>7</v>
@@ -4572,7 +4722,7 @@
         <v>27</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>28</v>
@@ -4600,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F491326-953E-4C42-8321-9292958EAD99}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4618,7 +4768,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4653,16 +4803,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>3</v>
@@ -4705,7 +4855,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>31</v>
@@ -4731,7 +4881,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>75</v>
@@ -4749,7 +4899,7 @@
         <v>44</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.35">
@@ -4801,7 +4951,7 @@
         <v>44</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="100" x14ac:dyDescent="0.35">
@@ -4827,7 +4977,7 @@
         <v>44</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.35">
@@ -4931,7 +5081,7 @@
         <v>80</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
@@ -4983,7 +5133,7 @@
         <v>89</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
@@ -5027,7 +5177,7 @@
         <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>102</v>
+        <v>461</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>31</v>
@@ -5053,7 +5203,7 @@
         <v>97</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>104</v>
+        <v>462</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>107</v>
@@ -5071,7 +5221,7 @@
         <v>44</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.35">
@@ -5123,7 +5273,7 @@
         <v>44</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="100" x14ac:dyDescent="0.35">
@@ -5149,7 +5299,7 @@
         <v>44</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.35">
@@ -5305,7 +5455,7 @@
         <v>162</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>163</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="175" x14ac:dyDescent="0.35">
@@ -5313,7 +5463,7 @@
         <v>128</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>166</v>
+        <v>465</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>160</v>
@@ -5331,7 +5481,7 @@
         <v>167</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>168</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
@@ -5529,7 +5679,7 @@
         <v>181</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>186</v>
+        <v>467</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>31</v>
@@ -5555,7 +5705,7 @@
         <v>182</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>188</v>
+        <v>468</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>196</v>
@@ -5573,7 +5723,7 @@
         <v>44</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.35">
@@ -5625,7 +5775,7 @@
         <v>44</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="100" x14ac:dyDescent="0.35">
@@ -5651,7 +5801,7 @@
         <v>44</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="112.5" x14ac:dyDescent="0.35">
@@ -5659,7 +5809,7 @@
         <v>194</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>200</v>
+        <v>466</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>195</v>
@@ -5685,7 +5835,7 @@
         <v>199</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>203</v>
+        <v>470</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>205</v>
@@ -5711,7 +5861,7 @@
         <v>204</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>207</v>
+        <v>471</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>206</v>
@@ -5737,7 +5887,7 @@
         <v>213</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>215</v>
+        <v>472</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>214</v>
@@ -5746,7 +5896,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>216</v>
@@ -5763,7 +5913,7 @@
         <v>217</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>220</v>
+        <v>469</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>219</v>
@@ -5799,7 +5949,7 @@
         <v>218</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>228</v>
+        <v>473</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>31</v>
@@ -5825,7 +5975,7 @@
         <v>224</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>232</v>
+        <v>474</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>231</v>
@@ -5895,7 +6045,7 @@
         <v>44</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="100" x14ac:dyDescent="0.35">
@@ -5921,7 +6071,7 @@
         <v>44</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="137.5" x14ac:dyDescent="0.35">
@@ -5929,7 +6079,7 @@
         <v>244</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>246</v>
+        <v>475</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>240</v>
@@ -5978,10 +6128,10 @@
     </row>
     <row r="60" spans="1:8" ht="200" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>251</v>
+        <v>476</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>240</v>
@@ -5990,7 +6140,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>255</v>
+        <v>487</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>254</v>
@@ -6004,22 +6154,22 @@
     </row>
     <row r="61" spans="1:8" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D61" s="21">
         <v>7</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>253</v>
@@ -6030,22 +6180,22 @@
     </row>
     <row r="62" spans="1:8" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D62" s="21">
         <v>7</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>253</v>
@@ -6056,22 +6206,22 @@
     </row>
     <row r="63" spans="1:8" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D63" s="21">
         <v>7</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>253</v>
@@ -6082,22 +6232,22 @@
     </row>
     <row r="64" spans="1:8" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D64" s="21">
         <v>7</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>253</v>
@@ -6119,8 +6269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EFE44B-8E51-422E-95A4-144CF7CA717C}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6136,7 +6286,7 @@
     <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="C1" s="9" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -6169,39 +6319,39 @@
     </row>
     <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>292</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>32</v>
@@ -6209,19 +6359,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>74</v>
+        <v>512</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>32</v>
@@ -6229,19 +6379,19 @@
     </row>
     <row r="9" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>512</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>301</v>
+        <v>513</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>300</v>
+        <v>514</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>32</v>
@@ -6249,19 +6399,19 @@
     </row>
     <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>515</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>298</v>
+        <v>516</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>302</v>
+        <v>517</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>32</v>
@@ -6269,19 +6419,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>82</v>
+        <v>518</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>32</v>
@@ -6289,19 +6439,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>32</v>
@@ -6309,19 +6459,19 @@
     </row>
     <row r="13" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>32</v>
@@ -6329,19 +6479,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>125</v>
+        <v>488</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>32</v>
@@ -6349,19 +6499,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>120</v>
+        <v>489</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>32</v>
@@ -6369,19 +6519,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>122</v>
+        <v>490</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>208</v>
@@ -6389,19 +6539,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>130</v>
+        <v>491</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>208</v>
@@ -6409,19 +6559,19 @@
     </row>
     <row r="18" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>160</v>
+        <v>492</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>32</v>
@@ -6429,19 +6579,19 @@
     </row>
     <row r="19" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>141</v>
+        <v>493</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>32</v>
@@ -6449,19 +6599,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>142</v>
+        <v>494</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>32</v>
@@ -6469,19 +6619,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>143</v>
+        <v>495</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>32</v>
@@ -6489,19 +6639,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>144</v>
+        <v>496</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>241</v>
@@ -6509,19 +6659,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>145</v>
+        <v>497</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F23" s="31" t="s">
         <v>32</v>
@@ -6529,19 +6679,19 @@
     </row>
     <row r="24" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>174</v>
+        <v>498</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>32</v>
@@ -6549,19 +6699,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>32</v>
@@ -6569,19 +6719,19 @@
     </row>
     <row r="26" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>32</v>
@@ -6589,19 +6739,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>195</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>32</v>
@@ -6609,19 +6759,19 @@
     </row>
     <row r="28" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>195</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>359</v>
+        <v>499</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>358</v>
+        <v>500</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>32</v>
@@ -6629,19 +6779,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>195</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>32</v>
@@ -6649,19 +6799,19 @@
     </row>
     <row r="30" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>195</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>362</v>
+        <v>501</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>363</v>
+        <v>502</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>32</v>
@@ -6669,19 +6819,19 @@
     </row>
     <row r="31" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>208</v>
@@ -6689,19 +6839,19 @@
     </row>
     <row r="32" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>32</v>
@@ -6709,19 +6859,19 @@
     </row>
     <row r="33" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>240</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>380</v>
+        <v>503</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>32</v>
@@ -6729,19 +6879,19 @@
     </row>
     <row r="34" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>240</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>385</v>
+        <v>504</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>386</v>
+        <v>505</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>32</v>
@@ -6749,19 +6899,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>387</v>
+        <v>506</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>391</v>
+        <v>507</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>32</v>
@@ -6769,19 +6919,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>388</v>
+        <v>520</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>392</v>
+        <v>521</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>32</v>
@@ -6789,19 +6939,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>393</v>
+        <v>509</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>32</v>
@@ -6809,19 +6959,19 @@
     </row>
     <row r="38" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>394</v>
+        <v>511</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>32</v>
@@ -6838,11 +6988,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD40FF76-EDC2-4244-B04B-32A4AFE79F18}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="28" customWidth="1"/>
+    <col min="6" max="6" width="33.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="8.54296875" style="76" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="76" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.453125" style="76" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E1" s="81" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13" x14ac:dyDescent="0.35">
+      <c r="A2" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.35">
+      <c r="A5" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+    </row>
+    <row r="8" spans="1:12" s="78" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A8" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>440</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>424</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>432</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>433</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="79" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C9" s="58">
+        <v>44688</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>485</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>442</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="71" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="58">
+        <v>44689</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="72" t="s">
+        <v>451</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="74">
+        <v>44690</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>448</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>457</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="J11" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="K11" s="80"/>
+      <c r="L11" s="70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+      <c r="A12" s="72" t="s">
+        <v>460</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" s="74">
+        <v>44691</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="J12" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C13" s="58">
+        <v>44692</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>481</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDFCCDB-DDA3-4D56-BB10-A393A5FB5A85}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6882,7 +7349,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="M3" s="33"/>
       <c r="O3" s="33"/>
@@ -6902,7 +7369,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="M4" s="33"/>
       <c r="O4" s="33"/>
@@ -6922,7 +7389,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="M5" s="33"/>
       <c r="O5" s="33"/>
@@ -6939,16 +7406,16 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="C7" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
@@ -6967,7 +7434,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
@@ -6995,7 +7462,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
@@ -7064,268 +7531,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD40FF76-EDC2-4244-B04B-32A4AFE79F18}">
-  <dimension ref="A1:O6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.08984375" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="74" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.08984375" style="50" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" style="50" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" style="50" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" style="50" customWidth="1"/>
-    <col min="13" max="13" width="7.26953125" style="50" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.453125" style="50" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="50"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="41" t="s">
-        <v>449</v>
-      </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="41" t="s">
-        <v>452</v>
-      </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
-    </row>
-    <row r="2" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
-        <v>443</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>462</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>444</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>445</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>447</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>448</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>450</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>451</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>453</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>454</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>456</v>
-      </c>
-      <c r="M2" s="56" t="s">
-        <v>458</v>
-      </c>
-      <c r="N2" s="56" t="s">
-        <v>460</v>
-      </c>
-      <c r="O2" s="56" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="68" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
-        <v>465</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="59">
-        <v>44688</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>469</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>470</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>461</v>
-      </c>
-      <c r="H3" s="63" t="s">
-        <v>463</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="J3" s="65" t="s">
-        <v>479</v>
-      </c>
-      <c r="K3" s="65" t="s">
-        <v>471</v>
-      </c>
-      <c r="L3" s="65" t="s">
-        <v>472</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>459</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>464</v>
-      </c>
-      <c r="O3" s="67" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="58" t="s">
-        <v>473</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="59">
-        <v>44689</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>470</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>461</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>463</v>
-      </c>
-      <c r="I4" s="69" t="s">
-        <v>480</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>481</v>
-      </c>
-      <c r="K4" s="70" t="s">
-        <v>483</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>486</v>
-      </c>
-      <c r="M4" s="71" t="s">
-        <v>459</v>
-      </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
-        <v>474</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="59">
-        <v>44690</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>470</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>461</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>463</v>
-      </c>
-      <c r="I5" s="69" t="s">
-        <v>480</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>482</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>484</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>485</v>
-      </c>
-      <c r="M5" s="71" t="s">
-        <v>459</v>
-      </c>
-      <c r="N5" s="72"/>
-      <c r="O5" s="73" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="58" t="s">
-        <v>487</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>488</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://getmarker.io" xr:uid="{603782D4-E3CC-4091-96FA-3B97239A8907}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>
--- a/target/classes/TestDocuments.xlsx
+++ b/target/classes/TestDocuments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jasmine\ICTAK\workspace_Maven\PhpTravels\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E99FA95-0538-4F9C-8E49-9CDF142DC0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B112883B-6EBA-4F0F-B279-C717B66FB630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="3" xr2:uid="{CC14654B-D7A2-44E2-B2A7-FB9EB1A7660C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{CC14654B-D7A2-44E2-B2A7-FB9EB1A7660C}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Design" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="534">
   <si>
     <t>Project Name</t>
   </si>
@@ -1927,6 +1927,12 @@
   </si>
   <si>
     <t>Supplier is unable to view the Revenue Breakdown graph</t>
+  </si>
+  <si>
+    <t>Test Step#</t>
+  </si>
+  <si>
+    <t>Validated to the requirement document</t>
   </si>
 </sst>
 </file>
@@ -2334,18 +2340,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2357,12 +2351,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2446,6 +2434,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2768,9 +2774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1FDEE8-7CCD-4AAE-90D6-A9021174B73F}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61:C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K53" sqref="K53:K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2833,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>6</v>
+        <v>532</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>8</v>
@@ -2885,11 +2891,15 @@
       <c r="H8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
       <c r="L8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2919,11 +2929,15 @@
       <c r="H9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
       <c r="L9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2953,16 +2967,20 @@
       <c r="H10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
       <c r="L10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -2987,11 +3005,15 @@
       <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
       <c r="L11" s="2" t="s">
         <v>29</v>
       </c>
@@ -3021,11 +3043,15 @@
       <c r="H12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
       <c r="L12" s="2" t="s">
         <v>29</v>
       </c>
@@ -3055,16 +3081,20 @@
       <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
       <c r="L13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="50" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -3089,16 +3119,20 @@
       <c r="H14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="20"/>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
       <c r="L14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="50" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
@@ -3123,16 +3157,20 @@
       <c r="H15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I15"/>
+      <c r="I15" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="20"/>
+      <c r="K15" s="2">
+        <v>5</v>
+      </c>
       <c r="L15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -3157,11 +3195,15 @@
       <c r="H16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I16"/>
+      <c r="I16" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="20"/>
+      <c r="K16" s="2">
+        <v>5</v>
+      </c>
       <c r="L16" s="2" t="s">
         <v>29</v>
       </c>
@@ -3191,16 +3233,20 @@
       <c r="H17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="2">
+        <v>5</v>
+      </c>
       <c r="L17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
@@ -3225,16 +3271,20 @@
       <c r="H18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="20"/>
+      <c r="K18" s="2">
+        <v>5</v>
+      </c>
       <c r="L18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>86</v>
       </c>
@@ -3259,16 +3309,20 @@
       <c r="H19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J19" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="2">
+        <v>5</v>
+      </c>
       <c r="L19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>93</v>
       </c>
@@ -3293,11 +3347,15 @@
       <c r="H20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="2">
+        <v>5</v>
+      </c>
       <c r="L20" s="2" t="s">
         <v>29</v>
       </c>
@@ -3341,11 +3399,15 @@
       <c r="H22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="2">
+        <v>5</v>
+      </c>
       <c r="L22" s="2" t="s">
         <v>29</v>
       </c>
@@ -3375,16 +3437,20 @@
       <c r="H23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="2">
+        <v>5</v>
+      </c>
       <c r="L23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>98</v>
       </c>
@@ -3409,11 +3475,15 @@
       <c r="H24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="5"/>
+      <c r="K24" s="2">
+        <v>5</v>
+      </c>
       <c r="L24" s="2" t="s">
         <v>29</v>
       </c>
@@ -3443,11 +3513,15 @@
       <c r="H25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="2">
+        <v>5</v>
+      </c>
       <c r="L25" s="2" t="s">
         <v>29</v>
       </c>
@@ -3477,16 +3551,20 @@
       <c r="H26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="5"/>
+      <c r="K26" s="2">
+        <v>5</v>
+      </c>
       <c r="L26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>114</v>
       </c>
@@ -3511,16 +3589,20 @@
       <c r="H27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="20"/>
+      <c r="K27" s="2">
+        <v>5</v>
+      </c>
       <c r="L27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>115</v>
       </c>
@@ -3545,16 +3627,20 @@
       <c r="H28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J28" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="20"/>
+      <c r="K28" s="2">
+        <v>5</v>
+      </c>
       <c r="L28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>116</v>
       </c>
@@ -3579,16 +3665,20 @@
       <c r="H29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J29" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="20"/>
+      <c r="K29" s="2">
+        <v>5</v>
+      </c>
       <c r="L29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>117</v>
       </c>
@@ -3613,16 +3703,20 @@
       <c r="H30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J30" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="20"/>
+      <c r="K30" s="2">
+        <v>5</v>
+      </c>
       <c r="L30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>126</v>
       </c>
@@ -3647,16 +3741,20 @@
       <c r="H31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K31" s="20"/>
+      <c r="K31" s="2">
+        <v>5</v>
+      </c>
       <c r="L31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>127</v>
       </c>
@@ -3681,11 +3779,15 @@
       <c r="H32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="20"/>
+      <c r="I32" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J32" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K32" s="20"/>
+      <c r="K32" s="2">
+        <v>5</v>
+      </c>
       <c r="L32" s="2" t="s">
         <v>29</v>
       </c>
@@ -3715,16 +3817,20 @@
       <c r="H33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J33" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="20"/>
+      <c r="K33" s="2">
+        <v>5</v>
+      </c>
       <c r="L33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>129</v>
       </c>
@@ -3749,16 +3855,20 @@
       <c r="H34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="20"/>
+      <c r="I34" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J34" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="20"/>
+      <c r="K34" s="2">
+        <v>5</v>
+      </c>
       <c r="L34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>138</v>
       </c>
@@ -3783,16 +3893,20 @@
       <c r="H35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="20"/>
+      <c r="I35" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J35" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="20"/>
+      <c r="K35" s="2">
+        <v>5</v>
+      </c>
       <c r="L35" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>139</v>
       </c>
@@ -3817,16 +3931,20 @@
       <c r="H36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J36" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="20"/>
+      <c r="K36" s="2">
+        <v>5</v>
+      </c>
       <c r="L36" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>171</v>
       </c>
@@ -3851,16 +3969,20 @@
       <c r="H37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J37" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="20"/>
+      <c r="K37" s="2">
+        <v>5</v>
+      </c>
       <c r="L37" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>172</v>
       </c>
@@ -3883,16 +4005,20 @@
       <c r="H38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="20"/>
+      <c r="I38" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J38" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="20"/>
+      <c r="K38" s="2">
+        <v>5</v>
+      </c>
       <c r="L38" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>173</v>
       </c>
@@ -3917,16 +4043,20 @@
       <c r="H39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="20"/>
+      <c r="I39" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J39" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K39" s="20"/>
+      <c r="K39" s="2">
+        <v>5</v>
+      </c>
       <c r="L39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>178</v>
       </c>
@@ -3951,11 +4081,15 @@
       <c r="H40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="20"/>
+      <c r="I40" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J40" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="20"/>
+      <c r="K40" s="2">
+        <v>5</v>
+      </c>
       <c r="L40" s="2" t="s">
         <v>29</v>
       </c>
@@ -3999,11 +4133,15 @@
       <c r="H42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I42" s="5"/>
+      <c r="I42" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="2">
+        <v>5</v>
+      </c>
       <c r="L42" s="2" t="s">
         <v>29</v>
       </c>
@@ -4033,16 +4171,20 @@
       <c r="H43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="5"/>
+      <c r="I43" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="2">
+        <v>5</v>
+      </c>
       <c r="L43" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>183</v>
       </c>
@@ -4067,11 +4209,15 @@
       <c r="H44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K44" s="5"/>
+      <c r="K44" s="2">
+        <v>5</v>
+      </c>
       <c r="L44" s="2" t="s">
         <v>29</v>
       </c>
@@ -4101,11 +4247,15 @@
       <c r="H45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="5"/>
+      <c r="I45" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K45" s="5"/>
+      <c r="K45" s="2">
+        <v>5</v>
+      </c>
       <c r="L45" s="2" t="s">
         <v>29</v>
       </c>
@@ -4135,11 +4285,15 @@
       <c r="H46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I46" s="5"/>
+      <c r="I46" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="K46" s="2">
+        <v>5</v>
+      </c>
       <c r="L46" s="2" t="s">
         <v>29</v>
       </c>
@@ -4169,11 +4323,15 @@
       <c r="H47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="20"/>
+      <c r="I47" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J47" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K47" s="20"/>
+      <c r="K47" s="2">
+        <v>5</v>
+      </c>
       <c r="L47" s="2" t="s">
         <v>29</v>
       </c>
@@ -4203,11 +4361,15 @@
       <c r="H48" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="20"/>
+      <c r="I48" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K48" s="20"/>
+      <c r="K48" s="2">
+        <v>5</v>
+      </c>
       <c r="L48" s="2" t="s">
         <v>29</v>
       </c>
@@ -4237,11 +4399,15 @@
       <c r="H49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="20"/>
+      <c r="I49" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J49" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K49" s="20"/>
+      <c r="K49" s="2">
+        <v>5</v>
+      </c>
       <c r="L49" s="2" t="s">
         <v>29</v>
       </c>
@@ -4271,11 +4437,15 @@
       <c r="H50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I50" s="20"/>
+      <c r="I50" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J50" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="20"/>
+      <c r="K50" s="2">
+        <v>5</v>
+      </c>
       <c r="L50" s="2" t="s">
         <v>29</v>
       </c>
@@ -4305,11 +4475,15 @@
       <c r="H51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I51" s="20"/>
+      <c r="I51" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K51" s="20"/>
+      <c r="K51" s="2">
+        <v>5</v>
+      </c>
       <c r="L51" s="2" t="s">
         <v>29</v>
       </c>
@@ -4353,11 +4527,15 @@
       <c r="H53" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="5"/>
+      <c r="I53" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J53" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="K53" s="2">
+        <v>5</v>
+      </c>
       <c r="L53" s="2" t="s">
         <v>29</v>
       </c>
@@ -4387,16 +4565,20 @@
       <c r="H54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I54" s="5"/>
+      <c r="I54" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K54" s="5"/>
+      <c r="K54" s="2">
+        <v>5</v>
+      </c>
       <c r="L54" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>225</v>
       </c>
@@ -4421,11 +4603,15 @@
       <c r="H55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I55" s="5"/>
+      <c r="I55" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="5"/>
+      <c r="K55" s="2">
+        <v>5</v>
+      </c>
       <c r="L55" s="2" t="s">
         <v>29</v>
       </c>
@@ -4455,11 +4641,15 @@
       <c r="H56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I56" s="5"/>
+      <c r="I56" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K56" s="5"/>
+      <c r="K56" s="2">
+        <v>5</v>
+      </c>
       <c r="L56" s="2" t="s">
         <v>29</v>
       </c>
@@ -4489,16 +4679,20 @@
       <c r="H57" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I57" s="5"/>
+      <c r="I57" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J57" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K57" s="5"/>
+      <c r="K57" s="2">
+        <v>5</v>
+      </c>
       <c r="L57" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>244</v>
       </c>
@@ -4523,16 +4717,20 @@
       <c r="H58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I58" s="20"/>
+      <c r="I58" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J58" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="K58" s="20"/>
+      <c r="K58" s="2">
+        <v>5</v>
+      </c>
       <c r="L58" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>245</v>
       </c>
@@ -4557,11 +4755,15 @@
       <c r="H59" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I59" s="20"/>
+      <c r="I59" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J59" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K59" s="20"/>
+      <c r="K59" s="2">
+        <v>5</v>
+      </c>
       <c r="L59" s="26" t="s">
         <v>70</v>
       </c>
@@ -4591,16 +4793,20 @@
       <c r="H60" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I60" s="20"/>
+      <c r="I60" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J60" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K60" s="20"/>
+      <c r="K60" s="2">
+        <v>5</v>
+      </c>
       <c r="L60" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>366</v>
       </c>
@@ -4625,16 +4831,20 @@
       <c r="H61" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="I61" s="20"/>
+      <c r="I61" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J61" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K61" s="20"/>
+      <c r="K61" s="2">
+        <v>5</v>
+      </c>
       <c r="L61" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>367</v>
       </c>
@@ -4659,16 +4869,20 @@
       <c r="H62" s="39" t="s">
         <v>420</v>
       </c>
-      <c r="I62" s="20"/>
+      <c r="I62" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J62" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K62" s="20"/>
+      <c r="K62" s="2">
+        <v>5</v>
+      </c>
       <c r="L62" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>368</v>
       </c>
@@ -4693,16 +4907,20 @@
       <c r="H63" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I63" s="20"/>
+      <c r="I63" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J63" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K63" s="20"/>
+      <c r="K63" s="2">
+        <v>5</v>
+      </c>
       <c r="L63" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>369</v>
       </c>
@@ -4727,11 +4945,15 @@
       <c r="H64" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="20"/>
+      <c r="I64" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="J64" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K64" s="20"/>
+      <c r="K64" s="2">
+        <v>5</v>
+      </c>
       <c r="L64" s="21" t="s">
         <v>29</v>
       </c>
@@ -6991,7 +7213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD40FF76-EDC2-4244-B04B-32A4AFE79F18}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -6999,42 +7221,42 @@
   <cols>
     <col min="1" max="1" width="9.08984375" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" style="69" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.54296875" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="28" customWidth="1"/>
     <col min="6" max="6" width="33.08984375" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.08984375" style="28" customWidth="1"/>
     <col min="9" max="9" width="21.26953125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="8.54296875" style="76" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="76" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.453125" style="76" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.54296875" style="70" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="70" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.453125" style="70" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.7265625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="75" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>480</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="71" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="46" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="45" t="s">
         <v>428</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -7042,81 +7264,81 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.35">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="45" t="s">
         <v>429</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="47" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="80" t="s">
         <v>421</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="78" t="s">
         <v>425</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="46" t="s">
+      <c r="E7" s="79"/>
+      <c r="F7" s="78" t="s">
         <v>430</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="52" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="76" t="s">
         <v>435</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-    </row>
-    <row r="8" spans="1:12" s="78" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A8" s="60" t="s">
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+    </row>
+    <row r="8" spans="1:12" s="72" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A8" s="54" t="s">
         <v>422</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="54" t="s">
         <v>440</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="55" t="s">
         <v>424</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="56" t="s">
         <v>426</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="56" t="s">
         <v>427</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="57" t="s">
         <v>432</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="57" t="s">
         <v>433</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="I8" s="57" t="s">
         <v>434</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="K8" s="64" t="s">
+      <c r="K8" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="L8" s="64" t="s">
+      <c r="L8" s="58" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="79" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+    <row r="9" spans="1:12" s="73" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
         <v>443</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="52">
         <v>44688</v>
       </c>
       <c r="D9" s="40" t="s">
@@ -7125,7 +7347,7 @@
       <c r="E9" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="67" t="s">
         <v>485</v>
       </c>
       <c r="G9" s="41" t="s">
@@ -7137,24 +7359,24 @@
       <c r="I9" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="59" t="s">
         <v>437</v>
       </c>
-      <c r="K9" s="65" t="s">
+      <c r="K9" s="59" t="s">
         <v>442</v>
       </c>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="60" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="65" t="s">
         <v>450</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="52">
         <v>44689</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -7175,58 +7397,58 @@
       <c r="I10" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="61" t="s">
         <v>437</v>
       </c>
       <c r="K10" s="21"/>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="62" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="68">
         <v>44690</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="48" t="s">
         <v>453</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="51" t="s">
         <v>448</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="50" t="s">
         <v>457</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="70" t="s">
+      <c r="K11" s="74"/>
+      <c r="L11" s="64" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="66" t="s">
         <v>460</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="68">
         <v>44691</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -7247,7 +7469,7 @@
       <c r="I12" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="63" t="s">
         <v>437</v>
       </c>
       <c r="K12" s="21"/>
@@ -7256,13 +7478,13 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="65" t="s">
         <v>525</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="52">
         <v>44692</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -7271,7 +7493,7 @@
       <c r="E13" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="53" t="s">
         <v>481</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -7283,11 +7505,11 @@
       <c r="I13" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="61" t="s">
         <v>437</v>
       </c>
       <c r="K13" s="21"/>
-      <c r="L13" s="67" t="s">
+      <c r="L13" s="61" t="s">
         <v>32</v>
       </c>
     </row>
